--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/pivot_table_Riverview ALF.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/pivot_table_Riverview ALF.xlsx
@@ -99,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,13 +114,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6D2A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8DCB8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB2B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC6C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFECEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD6D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2D0A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEDEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F8F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6FBF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FCF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEE6CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFCFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2A2A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCEEDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2E8D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBADCBA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF68B368"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60B060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACC9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD2D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4D2A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCE6CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,14 +326,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,118 +757,118 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>12.00079917907714</v>
-      </c>
-      <c r="K4" s="3">
-        <v>60.92667579650879</v>
-      </c>
-      <c r="L4" s="3">
-        <v>55.59444427490234</v>
-      </c>
-      <c r="M4" s="3">
-        <v>53.31277847290039</v>
+        <v>-0.2038955688476563</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.733297109603882</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.398956775665283</v>
+      </c>
+      <c r="M4" s="6">
+        <v>-1.512777805328369</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
-      <c r="B5" s="3">
-        <v>50.08339881896973</v>
-      </c>
-      <c r="C5" s="3">
-        <v>59.60583686828613</v>
-      </c>
-      <c r="D5" s="3">
-        <v>47.59669303894043</v>
-      </c>
-      <c r="E5" s="3">
-        <v>186.5816116333008</v>
-      </c>
-      <c r="F5" s="3">
-        <v>74.02420043945312</v>
-      </c>
-      <c r="G5" s="3">
-        <v>167.686939239502</v>
-      </c>
-      <c r="H5" s="3">
-        <v>68.56322288513184</v>
-      </c>
-      <c r="I5" s="3">
-        <v>84.66005325317383</v>
-      </c>
-      <c r="J5" s="3">
-        <v>53.83729934692383</v>
-      </c>
-      <c r="K5" s="3">
-        <v>103.4665107727051</v>
-      </c>
-      <c r="L5" s="3">
-        <v>53.00045013427734</v>
-      </c>
-      <c r="M5" s="3">
-        <v>53.61437797546387</v>
+      <c r="B5" s="7">
+        <v>-1.119530200958252</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-0.3618359565734862</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-0.8118629455566406</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.81950330734253</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-0.5048394203186035</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.268208026885986</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.2477765083312989</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.1628875732421875</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.1495838165283204</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.9680628776550294</v>
+      </c>
+      <c r="L5" s="17">
+        <v>-1.386880874633789</v>
+      </c>
+      <c r="M5" s="18">
+        <v>-0.06618499755859375</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
-      <c r="B6" s="3">
-        <v>101.3243198394775</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-539.3755435943605</v>
-      </c>
-      <c r="D6" s="3">
-        <v>13.02123069763183</v>
-      </c>
-      <c r="E6" s="3">
-        <v>126.3225078582764</v>
-      </c>
-      <c r="F6" s="3">
-        <v>265.0892734527588</v>
-      </c>
-      <c r="G6" s="3">
-        <v>150.1202583312989</v>
-      </c>
-      <c r="H6" s="3">
-        <v>142.6184177398682</v>
-      </c>
-      <c r="I6" s="3">
-        <v>110.2340221405029</v>
-      </c>
-      <c r="J6" s="3">
-        <v>156.25</v>
-      </c>
-      <c r="K6" s="3">
-        <v>145.3924179077148</v>
-      </c>
-      <c r="L6" s="3">
-        <v>461.5902900695801</v>
-      </c>
-      <c r="M6" s="3">
-        <v>365.5624389648438</v>
+      <c r="B6" s="19">
+        <v>0.6374359130859375</v>
+      </c>
+      <c r="C6" s="20">
+        <v>-4.165422916412354</v>
+      </c>
+      <c r="D6" s="21">
+        <v>7.122802734375</v>
+      </c>
+      <c r="E6" s="22">
+        <v>-1.230204105377197</v>
+      </c>
+      <c r="F6" s="23">
+        <v>-0.4572033882141113</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.1382350921630862</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.677490234375</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.876164436340332</v>
+      </c>
+      <c r="J6" s="26">
+        <v>1.365339756011963</v>
+      </c>
+      <c r="K6" s="27">
+        <v>-0.9264826774597164</v>
+      </c>
+      <c r="L6" s="28">
+        <v>2.932870388031006</v>
+      </c>
+      <c r="M6" s="29">
+        <v>3.096163272857666</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
-      <c r="B7" s="3">
-        <v>259.7010135650635</v>
-      </c>
-      <c r="C7" s="3">
-        <v>875.4587173461914</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.88672065734863</v>
-      </c>
-      <c r="E7" s="3">
-        <v>206.289291381836</v>
-      </c>
-      <c r="F7" s="3">
-        <v>206.2904834747314</v>
+      <c r="B7" s="30">
+        <v>1.971948146820068</v>
+      </c>
+      <c r="C7" s="21">
+        <v>9.215033054351807</v>
+      </c>
+      <c r="D7" s="31">
+        <v>-0.8760213851928711</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1.79508924484253</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.9886026382446289</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>

--- a/Correlacao_de_fundos/Desenvolvimento/2Descritivas/pivot_table_Riverview ALF.xlsx
+++ b/Correlacao_de_fundos/Desenvolvimento/2Descritivas/pivot_table_Riverview ALF.xlsx
@@ -898,4 +898,209 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006522679F146DFF498D699F828D56000C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafef3a4b21104a4f88b1575ea132e6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2906f1-4e2b-432c-9c12-773b8d680c96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a3c71ec86999a8ee9371076eaf4925b" ns2:_="">
+    <xsd:import namespace="ee2906f1-4e2b-432c-9c12-773b8d680c96"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee2906f1-4e2b-432c-9c12-773b8d680c96" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D90BE2B-A456-4F79-84A5-A763A97A7D40}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3AA5A56-AFF2-4FD0-B51E-EDDDD4A7C1C4}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FDA2D9F-8D62-44ED-B4C7-658C2B05DA48}"/>
 </file>